--- a/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_Loan_Portfolio_Analytics.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_Loan_Portfolio_Analytics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\THC\R0702\Web ReportTemplates\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\THC\R0702\Web ReportTemplates\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -206,7 +206,7 @@
     <t>Portfolio Name: Loans and lease financing receivables          Cycle: September, 2021           Evaluation Date: September 30, 2021</t>
   </si>
   <si>
-    <t>Printed on: 11/02/2021 4:18:15PM</t>
+    <t>Printed on: 01/06/2022 4:49:00AM</t>
   </si>
   <si>
     <t>Footnotes:_x000D_
@@ -843,6 +843,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -871,57 +922,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1068,7 +1068,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-92A0-4907-87F3-AC98E676EE35}"/>
+                <c16:uniqueId val="{00000001-4C08-479C-B8BE-598E11CBD26A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1082,7 +1082,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-92A0-4907-87F3-AC98E676EE35}"/>
+                <c16:uniqueId val="{00000003-4C08-479C-B8BE-598E11CBD26A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1096,7 +1096,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-92A0-4907-87F3-AC98E676EE35}"/>
+                <c16:uniqueId val="{00000005-4C08-479C-B8BE-598E11CBD26A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1110,7 +1110,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-92A0-4907-87F3-AC98E676EE35}"/>
+                <c16:uniqueId val="{00000007-4C08-479C-B8BE-598E11CBD26A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1148,7 +1148,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-92A0-4907-87F3-AC98E676EE35}"/>
+                  <c16:uniqueId val="{00000005-4C08-479C-B8BE-598E11CBD26A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1317,7 +1317,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-92A0-4907-87F3-AC98E676EE35}"/>
+              <c16:uniqueId val="{00000008-4C08-479C-B8BE-598E11CBD26A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1420,7 +1420,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-F189-4830-803B-02B650F9B36D}"/>
+                <c16:uniqueId val="{00000001-F75E-494E-B257-711A0BACDD3B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1434,7 +1434,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F189-4830-803B-02B650F9B36D}"/>
+                <c16:uniqueId val="{00000003-F75E-494E-B257-711A0BACDD3B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1448,7 +1448,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-F189-4830-803B-02B650F9B36D}"/>
+                <c16:uniqueId val="{00000005-F75E-494E-B257-711A0BACDD3B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1462,7 +1462,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F189-4830-803B-02B650F9B36D}"/>
+                <c16:uniqueId val="{00000007-F75E-494E-B257-711A0BACDD3B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1530,7 +1530,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F189-4830-803B-02B650F9B36D}"/>
+              <c16:uniqueId val="{00000008-F75E-494E-B257-711A0BACDD3B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2345,7 +2345,7 @@
   <dimension ref="A1:AG546"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2385,29 +2385,29 @@
     <row r="1" spans="2:33" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:33" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
@@ -2602,10 +2602,10 @@
       <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="66"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="37" t="s">
         <v>9</v>
       </c>
@@ -2615,14 +2615,14 @@
       <c r="G9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -2634,21 +2634,21 @@
       <c r="AG9" s="12"/>
     </row>
     <row r="10" spans="2:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="60">
+      <c r="C10" s="50">
         <v>100</v>
       </c>
-      <c r="D10" s="61"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="38">
         <f>C10/100-U17+Q17</f>
-        <v>2.0155446447320835</v>
+        <v>2.0157904925113135</v>
       </c>
       <c r="F10" s="39">
         <f>(1-(C10/10000-U17/100)*AB17)*E17</f>
-        <v>112.12116075748388</v>
+        <v>112.12072775990549</v>
       </c>
       <c r="G10" s="40">
         <f>(1-(C10/10000-U17/100)*AB17)*F17</f>
-        <v>111.5293500466759</v>
+        <v>111.52890683312587</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -2661,173 +2661,173 @@
       <c r="AG10" s="12"/>
     </row>
     <row r="11" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="59" t="s">
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="57" t="s">
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="54" t="s">
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="52" t="s">
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
     </row>
     <row r="12" spans="2:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="55"/>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="55" t="s">
+      <c r="M12" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="55" t="s">
+      <c r="N12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="55" t="s">
+      <c r="O12" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="55" t="s">
+      <c r="P12" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="59" t="s">
+      <c r="Q12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="59" t="s">
+      <c r="R12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="59" t="s">
+      <c r="S12" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="T12" s="59" t="s">
+      <c r="T12" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="59" t="s">
+      <c r="V12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="W12" s="57" t="s">
+      <c r="W12" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="X12" s="57" t="s">
+      <c r="X12" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="Y12" s="57" t="s">
+      <c r="Y12" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Z12" s="54" t="s">
+      <c r="Z12" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AA12" s="54" t="s">
+      <c r="AA12" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AB12" s="54" t="s">
+      <c r="AB12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="AC12" s="52" t="s">
+      <c r="AC12" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52" t="s">
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52" t="s">
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
       <c r="AC13" s="36" t="s">
         <v>46</v>
       </c>
@@ -2840,121 +2840,121 @@
       <c r="AF13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="AG13" s="52"/>
+      <c r="AG13" s="46"/>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="56" t="s">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R14" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="S14" s="56" t="s">
+      <c r="S14" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="T14" s="56" t="s">
+      <c r="T14" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="56" t="s">
+      <c r="U14" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="V14" s="56"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
     </row>
     <row r="15" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
     </row>
     <row r="16" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="53"/>
-      <c r="AF16" s="53"/>
-      <c r="AG16" s="53"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
     </row>
     <row r="17" spans="1:33" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
@@ -2970,15 +2970,15 @@
       </c>
       <c r="E17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!E101:E114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>111.99296646281917</v>
+        <v>111.992527347443</v>
       </c>
       <c r="F17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!F101:F114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>111.40183240177235</v>
+        <v>111.40138311701055</v>
       </c>
       <c r="G17" s="17">
         <f>SUM(DATATEMP!G101:G114)</f>
-        <v>109581.52646032743</v>
+        <v>109581.08451687863</v>
       </c>
       <c r="H17" s="17">
         <f>SUM(DATATEMP!H101:H114)</f>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="N17" s="17">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!N101:N114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>150.08802025619531</v>
+        <v>150.08785056154892</v>
       </c>
       <c r="O17" s="17">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!O101:O114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
@@ -3012,71 +3012,71 @@
       </c>
       <c r="Q17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!Q101:Q114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.0554625150971626</v>
+        <v>2.055709766244926</v>
       </c>
       <c r="R17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!R101:R114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>0.75016934051414719</v>
+        <v>0.75027837980262646</v>
       </c>
       <c r="S17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!S101:S114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>-2.8797700882865242E-2</v>
+        <v>-2.8662052180484076E-2</v>
       </c>
       <c r="T17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!T101:T114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>0.29417300510080174</v>
+        <v>0.29417416488917103</v>
       </c>
       <c r="U17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!U101:U114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>1.0399178703650791</v>
+        <v>1.0399192737336123</v>
       </c>
       <c r="V17" s="21">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!V101:V114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>1.2195550589450224</v>
+        <v>1.2197860263409444</v>
       </c>
       <c r="W17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!W101:W114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>3.2747073793169079</v>
+        <v>3.2747733940687214</v>
       </c>
       <c r="X17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!X101:X114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>1.9058796523025574</v>
+        <v>1.9057838202944786</v>
       </c>
       <c r="Y17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!Y101:Y114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>-0.89664302898790404</v>
+        <v>-0.89378677823924946</v>
       </c>
       <c r="Z17" s="22">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!Z101:Z114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.9534958259657015E-2</v>
+        <v>2.9532506978968944E-2</v>
       </c>
       <c r="AA17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!AA101:AA114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>0.90370832941680534</v>
+        <v>0.90372051768492223</v>
       </c>
       <c r="AB17" s="16">
         <f>IF(SUM(DATATEMP!G101:G114) = 0,"",SUMPRODUCT(DATATEMP!AB101:AB114,DATATEMP!G101:G114)/SUM(DATATEMP!G101:G114))</f>
-        <v>2.8675472674894937</v>
+        <v>2.8675945447399607</v>
       </c>
       <c r="AC17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AC101:AC114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>17.157121099294823</v>
+        <v>17.15691751120508</v>
       </c>
       <c r="AD17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AD101:AD114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>17.429300909052667</v>
+        <v>17.429413293760675</v>
       </c>
       <c r="AE17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AE101:AE114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>0.27460385695657497</v>
+        <v>0.27460382737769534</v>
       </c>
       <c r="AF17" s="16">
         <f>IF(SUM(DATATEMP!H101:H114) = 0,"",SUMPRODUCT(DATATEMP!AF101:AF114,DATATEMP!H101:H114)/SUM(DATATEMP!H101:H114))</f>
-        <v>0.36220979118269192</v>
+        <v>0.3622095739082235</v>
       </c>
       <c r="AG17" s="17">
         <f>SUM(DATATEMP!AG101:AG114)</f>
-        <v>838.7294784083083</v>
+        <v>838.7414389512262</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3731,13 +3731,13 @@
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="23">
-        <v>110.302946280212</v>
+        <v>110.302219218267</v>
       </c>
       <c r="F30" s="23">
-        <v>109.76467757047654</v>
+        <v>109.76393367064856</v>
       </c>
       <c r="G30" s="26">
-        <v>65210.097297844404</v>
+        <v>65209.655354395596</v>
       </c>
       <c r="H30" s="26">
         <v>59409</v>
@@ -3761,55 +3761,55 @@
         <v>75</v>
       </c>
       <c r="Q30" s="30">
-        <v>1.7577549905965009</v>
+        <v>1.758168464320343</v>
       </c>
       <c r="R30" s="30">
-        <v>0.76438235154394951</v>
+        <v>0.76456568213768838</v>
       </c>
       <c r="S30" s="30">
-        <v>-4.8392611844560597E-2</v>
+        <v>-4.81647947828545E-2</v>
       </c>
       <c r="T30" s="30">
-        <v>0.16026707905124099</v>
+        <v>0.16026812049242301</v>
       </c>
       <c r="U30" s="30">
-        <v>0.88149817184587109</v>
+        <v>0.88149945647308603</v>
       </c>
       <c r="V30" s="30">
-        <v>1.1292979202958</v>
+        <v>1.1296854360562301</v>
       </c>
       <c r="W30" s="23">
-        <v>2.7390820064283301</v>
+        <v>2.7391893103534199</v>
       </c>
       <c r="X30" s="23">
-        <v>1.5134107965641239</v>
+        <v>1.513247096505316</v>
       </c>
       <c r="Y30" s="23">
-        <v>-1.0239497069616892</v>
+        <v>-1.0191508042434232</v>
       </c>
       <c r="Z30" s="31">
-        <v>4.6401742512260702E-2</v>
+        <v>4.6397737586455899E-2</v>
       </c>
       <c r="AA30" s="23">
-        <v>0.71400216273615902</v>
+        <v>0.71402135873151096</v>
       </c>
       <c r="AB30" s="23">
-        <v>2.5472407244451563</v>
+        <v>2.5473180003481417</v>
       </c>
       <c r="AC30" s="23">
-        <v>25.088268626646197</v>
+        <v>25.087931537214704</v>
       </c>
       <c r="AD30" s="23">
-        <v>25.435783248364203</v>
+        <v>25.4359693284899</v>
       </c>
       <c r="AE30" s="23">
-        <v>0.11242142032050001</v>
+        <v>0.112421371345495</v>
       </c>
       <c r="AF30" s="23">
-        <v>0.25418789247949297</v>
+        <v>0.25418753272894401</v>
       </c>
       <c r="AG30" s="26">
-        <v>274.71684957748499</v>
+        <v>274.72881012040301</v>
       </c>
     </row>
     <row r="31" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5151,35 +5151,35 @@
       <c r="AG54" s="26"/>
     </row>
     <row r="55" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="43"/>
-      <c r="Z55" s="43"/>
-      <c r="AA55" s="43"/>
-      <c r="AB55" s="44"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="60"/>
+      <c r="Y55" s="60"/>
+      <c r="Z55" s="60"/>
+      <c r="AA55" s="60"/>
+      <c r="AB55" s="61"/>
       <c r="AC55" s="34"/>
       <c r="AD55" s="34"/>
       <c r="AE55" s="34"/>
@@ -5187,33 +5187,33 @@
       <c r="AG55" s="34"/>
     </row>
     <row r="56" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="45"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="46"/>
-      <c r="V56" s="46"/>
-      <c r="W56" s="46"/>
-      <c r="X56" s="46"/>
-      <c r="Y56" s="46"/>
-      <c r="Z56" s="46"/>
-      <c r="AA56" s="46"/>
-      <c r="AB56" s="47"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="63"/>
+      <c r="T56" s="63"/>
+      <c r="U56" s="63"/>
+      <c r="V56" s="63"/>
+      <c r="W56" s="63"/>
+      <c r="X56" s="63"/>
+      <c r="Y56" s="63"/>
+      <c r="Z56" s="63"/>
+      <c r="AA56" s="63"/>
+      <c r="AB56" s="64"/>
       <c r="AC56" s="34"/>
       <c r="AD56" s="34"/>
       <c r="AE56" s="34"/>
@@ -5221,33 +5221,33 @@
       <c r="AG56" s="34"/>
     </row>
     <row r="57" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="45"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
-      <c r="Q57" s="46"/>
-      <c r="R57" s="46"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="46"/>
-      <c r="V57" s="46"/>
-      <c r="W57" s="46"/>
-      <c r="X57" s="46"/>
-      <c r="Y57" s="46"/>
-      <c r="Z57" s="46"/>
-      <c r="AA57" s="46"/>
-      <c r="AB57" s="47"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="63"/>
+      <c r="U57" s="63"/>
+      <c r="V57" s="63"/>
+      <c r="W57" s="63"/>
+      <c r="X57" s="63"/>
+      <c r="Y57" s="63"/>
+      <c r="Z57" s="63"/>
+      <c r="AA57" s="63"/>
+      <c r="AB57" s="64"/>
       <c r="AC57" s="34"/>
       <c r="AD57" s="34"/>
       <c r="AE57" s="34"/>
@@ -5255,33 +5255,33 @@
       <c r="AG57" s="34"/>
     </row>
     <row r="58" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="45"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
-      <c r="P58" s="46"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
-      <c r="V58" s="46"/>
-      <c r="W58" s="46"/>
-      <c r="X58" s="46"/>
-      <c r="Y58" s="46"/>
-      <c r="Z58" s="46"/>
-      <c r="AA58" s="46"/>
-      <c r="AB58" s="47"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="63"/>
+      <c r="P58" s="63"/>
+      <c r="Q58" s="63"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="63"/>
+      <c r="T58" s="63"/>
+      <c r="U58" s="63"/>
+      <c r="V58" s="63"/>
+      <c r="W58" s="63"/>
+      <c r="X58" s="63"/>
+      <c r="Y58" s="63"/>
+      <c r="Z58" s="63"/>
+      <c r="AA58" s="63"/>
+      <c r="AB58" s="64"/>
       <c r="AC58" s="34"/>
       <c r="AD58" s="34"/>
       <c r="AE58" s="34"/>
@@ -5289,33 +5289,33 @@
       <c r="AG58" s="34"/>
     </row>
     <row r="59" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="45"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="46"/>
-      <c r="P59" s="46"/>
-      <c r="Q59" s="46"/>
-      <c r="R59" s="46"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="46"/>
-      <c r="V59" s="46"/>
-      <c r="W59" s="46"/>
-      <c r="X59" s="46"/>
-      <c r="Y59" s="46"/>
-      <c r="Z59" s="46"/>
-      <c r="AA59" s="46"/>
-      <c r="AB59" s="47"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="63"/>
+      <c r="X59" s="63"/>
+      <c r="Y59" s="63"/>
+      <c r="Z59" s="63"/>
+      <c r="AA59" s="63"/>
+      <c r="AB59" s="64"/>
       <c r="AC59" s="34"/>
       <c r="AD59" s="34"/>
       <c r="AE59" s="34"/>
@@ -5323,33 +5323,33 @@
       <c r="AG59" s="34"/>
     </row>
     <row r="60" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46"/>
-      <c r="O60" s="46"/>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="46"/>
-      <c r="R60" s="46"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="46"/>
-      <c r="U60" s="46"/>
-      <c r="V60" s="46"/>
-      <c r="W60" s="46"/>
-      <c r="X60" s="46"/>
-      <c r="Y60" s="46"/>
-      <c r="Z60" s="46"/>
-      <c r="AA60" s="46"/>
-      <c r="AB60" s="47"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="63"/>
+      <c r="P60" s="63"/>
+      <c r="Q60" s="63"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="63"/>
+      <c r="T60" s="63"/>
+      <c r="U60" s="63"/>
+      <c r="V60" s="63"/>
+      <c r="W60" s="63"/>
+      <c r="X60" s="63"/>
+      <c r="Y60" s="63"/>
+      <c r="Z60" s="63"/>
+      <c r="AA60" s="63"/>
+      <c r="AB60" s="64"/>
       <c r="AC60" s="34"/>
       <c r="AD60" s="34"/>
       <c r="AE60" s="34"/>
@@ -5357,33 +5357,33 @@
       <c r="AG60" s="34"/>
     </row>
     <row r="61" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="45"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="46"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="46"/>
-      <c r="R61" s="46"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="46"/>
-      <c r="W61" s="46"/>
-      <c r="X61" s="46"/>
-      <c r="Y61" s="46"/>
-      <c r="Z61" s="46"/>
-      <c r="AA61" s="46"/>
-      <c r="AB61" s="47"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+      <c r="U61" s="63"/>
+      <c r="V61" s="63"/>
+      <c r="W61" s="63"/>
+      <c r="X61" s="63"/>
+      <c r="Y61" s="63"/>
+      <c r="Z61" s="63"/>
+      <c r="AA61" s="63"/>
+      <c r="AB61" s="64"/>
       <c r="AC61" s="34"/>
       <c r="AD61" s="34"/>
       <c r="AE61" s="34"/>
@@ -5391,33 +5391,33 @@
       <c r="AG61" s="34"/>
     </row>
     <row r="62" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="46"/>
-      <c r="X62" s="46"/>
-      <c r="Y62" s="46"/>
-      <c r="Z62" s="46"/>
-      <c r="AA62" s="46"/>
-      <c r="AB62" s="47"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="63"/>
+      <c r="Q62" s="63"/>
+      <c r="R62" s="63"/>
+      <c r="S62" s="63"/>
+      <c r="T62" s="63"/>
+      <c r="U62" s="63"/>
+      <c r="V62" s="63"/>
+      <c r="W62" s="63"/>
+      <c r="X62" s="63"/>
+      <c r="Y62" s="63"/>
+      <c r="Z62" s="63"/>
+      <c r="AA62" s="63"/>
+      <c r="AB62" s="64"/>
       <c r="AC62" s="34"/>
       <c r="AD62" s="34"/>
       <c r="AE62" s="34"/>
@@ -5425,33 +5425,33 @@
       <c r="AG62" s="34"/>
     </row>
     <row r="63" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="45"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="46"/>
-      <c r="X63" s="46"/>
-      <c r="Y63" s="46"/>
-      <c r="Z63" s="46"/>
-      <c r="AA63" s="46"/>
-      <c r="AB63" s="47"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="63"/>
+      <c r="U63" s="63"/>
+      <c r="V63" s="63"/>
+      <c r="W63" s="63"/>
+      <c r="X63" s="63"/>
+      <c r="Y63" s="63"/>
+      <c r="Z63" s="63"/>
+      <c r="AA63" s="63"/>
+      <c r="AB63" s="64"/>
       <c r="AC63" s="34"/>
       <c r="AD63" s="34"/>
       <c r="AE63" s="34"/>
@@ -5459,33 +5459,33 @@
       <c r="AG63" s="34"/>
     </row>
     <row r="64" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="45"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
-      <c r="Q64" s="46"/>
-      <c r="R64" s="46"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="46"/>
-      <c r="V64" s="46"/>
-      <c r="W64" s="46"/>
-      <c r="X64" s="46"/>
-      <c r="Y64" s="46"/>
-      <c r="Z64" s="46"/>
-      <c r="AA64" s="46"/>
-      <c r="AB64" s="47"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="63"/>
+      <c r="T64" s="63"/>
+      <c r="U64" s="63"/>
+      <c r="V64" s="63"/>
+      <c r="W64" s="63"/>
+      <c r="X64" s="63"/>
+      <c r="Y64" s="63"/>
+      <c r="Z64" s="63"/>
+      <c r="AA64" s="63"/>
+      <c r="AB64" s="64"/>
       <c r="AC64" s="34"/>
       <c r="AD64" s="34"/>
       <c r="AE64" s="34"/>
@@ -5493,33 +5493,33 @@
       <c r="AG64" s="34"/>
     </row>
     <row r="65" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="45"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
-      <c r="Q65" s="46"/>
-      <c r="R65" s="46"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="46"/>
-      <c r="V65" s="46"/>
-      <c r="W65" s="46"/>
-      <c r="X65" s="46"/>
-      <c r="Y65" s="46"/>
-      <c r="Z65" s="46"/>
-      <c r="AA65" s="46"/>
-      <c r="AB65" s="47"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63"/>
+      <c r="T65" s="63"/>
+      <c r="U65" s="63"/>
+      <c r="V65" s="63"/>
+      <c r="W65" s="63"/>
+      <c r="X65" s="63"/>
+      <c r="Y65" s="63"/>
+      <c r="Z65" s="63"/>
+      <c r="AA65" s="63"/>
+      <c r="AB65" s="64"/>
       <c r="AC65" s="34"/>
       <c r="AD65" s="34"/>
       <c r="AE65" s="34"/>
@@ -5527,33 +5527,33 @@
       <c r="AG65" s="34"/>
     </row>
     <row r="66" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="45"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
-      <c r="Q66" s="46"/>
-      <c r="R66" s="46"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="46"/>
-      <c r="V66" s="46"/>
-      <c r="W66" s="46"/>
-      <c r="X66" s="46"/>
-      <c r="Y66" s="46"/>
-      <c r="Z66" s="46"/>
-      <c r="AA66" s="46"/>
-      <c r="AB66" s="47"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="63"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="63"/>
+      <c r="T66" s="63"/>
+      <c r="U66" s="63"/>
+      <c r="V66" s="63"/>
+      <c r="W66" s="63"/>
+      <c r="X66" s="63"/>
+      <c r="Y66" s="63"/>
+      <c r="Z66" s="63"/>
+      <c r="AA66" s="63"/>
+      <c r="AB66" s="64"/>
       <c r="AC66" s="34"/>
       <c r="AD66" s="34"/>
       <c r="AE66" s="34"/>
@@ -5561,33 +5561,33 @@
       <c r="AG66" s="34"/>
     </row>
     <row r="67" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="45"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="46"/>
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
-      <c r="Q67" s="46"/>
-      <c r="R67" s="46"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="46"/>
-      <c r="V67" s="46"/>
-      <c r="W67" s="46"/>
-      <c r="X67" s="46"/>
-      <c r="Y67" s="46"/>
-      <c r="Z67" s="46"/>
-      <c r="AA67" s="46"/>
-      <c r="AB67" s="47"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="63"/>
+      <c r="Q67" s="63"/>
+      <c r="R67" s="63"/>
+      <c r="S67" s="63"/>
+      <c r="T67" s="63"/>
+      <c r="U67" s="63"/>
+      <c r="V67" s="63"/>
+      <c r="W67" s="63"/>
+      <c r="X67" s="63"/>
+      <c r="Y67" s="63"/>
+      <c r="Z67" s="63"/>
+      <c r="AA67" s="63"/>
+      <c r="AB67" s="64"/>
       <c r="AC67" s="34"/>
       <c r="AD67" s="34"/>
       <c r="AE67" s="34"/>
@@ -5595,33 +5595,33 @@
       <c r="AG67" s="34"/>
     </row>
     <row r="68" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="45"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="46"/>
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
-      <c r="Q68" s="46"/>
-      <c r="R68" s="46"/>
-      <c r="S68" s="46"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="46"/>
-      <c r="V68" s="46"/>
-      <c r="W68" s="46"/>
-      <c r="X68" s="46"/>
-      <c r="Y68" s="46"/>
-      <c r="Z68" s="46"/>
-      <c r="AA68" s="46"/>
-      <c r="AB68" s="47"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
+      <c r="O68" s="63"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="63"/>
+      <c r="R68" s="63"/>
+      <c r="S68" s="63"/>
+      <c r="T68" s="63"/>
+      <c r="U68" s="63"/>
+      <c r="V68" s="63"/>
+      <c r="W68" s="63"/>
+      <c r="X68" s="63"/>
+      <c r="Y68" s="63"/>
+      <c r="Z68" s="63"/>
+      <c r="AA68" s="63"/>
+      <c r="AB68" s="64"/>
       <c r="AC68" s="34"/>
       <c r="AD68" s="34"/>
       <c r="AE68" s="34"/>
@@ -5629,33 +5629,33 @@
       <c r="AG68" s="34"/>
     </row>
     <row r="69" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="45"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="46"/>
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="46"/>
-      <c r="R69" s="46"/>
-      <c r="S69" s="46"/>
-      <c r="T69" s="46"/>
-      <c r="U69" s="46"/>
-      <c r="V69" s="46"/>
-      <c r="W69" s="46"/>
-      <c r="X69" s="46"/>
-      <c r="Y69" s="46"/>
-      <c r="Z69" s="46"/>
-      <c r="AA69" s="46"/>
-      <c r="AB69" s="47"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
+      <c r="O69" s="63"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="63"/>
+      <c r="R69" s="63"/>
+      <c r="S69" s="63"/>
+      <c r="T69" s="63"/>
+      <c r="U69" s="63"/>
+      <c r="V69" s="63"/>
+      <c r="W69" s="63"/>
+      <c r="X69" s="63"/>
+      <c r="Y69" s="63"/>
+      <c r="Z69" s="63"/>
+      <c r="AA69" s="63"/>
+      <c r="AB69" s="64"/>
       <c r="AC69" s="34"/>
       <c r="AD69" s="34"/>
       <c r="AE69" s="34"/>
@@ -5663,33 +5663,33 @@
       <c r="AG69" s="34"/>
     </row>
     <row r="70" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="45"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
-      <c r="R70" s="46"/>
-      <c r="S70" s="46"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="46"/>
-      <c r="V70" s="46"/>
-      <c r="W70" s="46"/>
-      <c r="X70" s="46"/>
-      <c r="Y70" s="46"/>
-      <c r="Z70" s="46"/>
-      <c r="AA70" s="46"/>
-      <c r="AB70" s="47"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="63"/>
+      <c r="N70" s="63"/>
+      <c r="O70" s="63"/>
+      <c r="P70" s="63"/>
+      <c r="Q70" s="63"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="63"/>
+      <c r="T70" s="63"/>
+      <c r="U70" s="63"/>
+      <c r="V70" s="63"/>
+      <c r="W70" s="63"/>
+      <c r="X70" s="63"/>
+      <c r="Y70" s="63"/>
+      <c r="Z70" s="63"/>
+      <c r="AA70" s="63"/>
+      <c r="AB70" s="64"/>
       <c r="AC70" s="34"/>
       <c r="AD70" s="34"/>
       <c r="AE70" s="34"/>
@@ -5697,33 +5697,33 @@
       <c r="AG70" s="34"/>
     </row>
     <row r="71" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="45"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="46"/>
-      <c r="R71" s="46"/>
-      <c r="S71" s="46"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="46"/>
-      <c r="V71" s="46"/>
-      <c r="W71" s="46"/>
-      <c r="X71" s="46"/>
-      <c r="Y71" s="46"/>
-      <c r="Z71" s="46"/>
-      <c r="AA71" s="46"/>
-      <c r="AB71" s="47"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="63"/>
+      <c r="N71" s="63"/>
+      <c r="O71" s="63"/>
+      <c r="P71" s="63"/>
+      <c r="Q71" s="63"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="63"/>
+      <c r="T71" s="63"/>
+      <c r="U71" s="63"/>
+      <c r="V71" s="63"/>
+      <c r="W71" s="63"/>
+      <c r="X71" s="63"/>
+      <c r="Y71" s="63"/>
+      <c r="Z71" s="63"/>
+      <c r="AA71" s="63"/>
+      <c r="AB71" s="64"/>
       <c r="AC71" s="34"/>
       <c r="AD71" s="34"/>
       <c r="AE71" s="34"/>
@@ -5731,33 +5731,33 @@
       <c r="AG71" s="34"/>
     </row>
     <row r="72" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="45"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="46"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
-      <c r="Q72" s="46"/>
-      <c r="R72" s="46"/>
-      <c r="S72" s="46"/>
-      <c r="T72" s="46"/>
-      <c r="U72" s="46"/>
-      <c r="V72" s="46"/>
-      <c r="W72" s="46"/>
-      <c r="X72" s="46"/>
-      <c r="Y72" s="46"/>
-      <c r="Z72" s="46"/>
-      <c r="AA72" s="46"/>
-      <c r="AB72" s="47"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="63"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="63"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="63"/>
+      <c r="P72" s="63"/>
+      <c r="Q72" s="63"/>
+      <c r="R72" s="63"/>
+      <c r="S72" s="63"/>
+      <c r="T72" s="63"/>
+      <c r="U72" s="63"/>
+      <c r="V72" s="63"/>
+      <c r="W72" s="63"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="63"/>
+      <c r="AB72" s="64"/>
       <c r="AC72" s="34"/>
       <c r="AD72" s="34"/>
       <c r="AE72" s="34"/>
@@ -5765,33 +5765,33 @@
       <c r="AG72" s="34"/>
     </row>
     <row r="73" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="45"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="46"/>
-      <c r="W73" s="46"/>
-      <c r="X73" s="46"/>
-      <c r="Y73" s="46"/>
-      <c r="Z73" s="46"/>
-      <c r="AA73" s="46"/>
-      <c r="AB73" s="47"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="63"/>
+      <c r="N73" s="63"/>
+      <c r="O73" s="63"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="63"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="63"/>
+      <c r="T73" s="63"/>
+      <c r="U73" s="63"/>
+      <c r="V73" s="63"/>
+      <c r="W73" s="63"/>
+      <c r="X73" s="63"/>
+      <c r="Y73" s="63"/>
+      <c r="Z73" s="63"/>
+      <c r="AA73" s="63"/>
+      <c r="AB73" s="64"/>
       <c r="AC73" s="34"/>
       <c r="AD73" s="34"/>
       <c r="AE73" s="34"/>
@@ -5799,33 +5799,33 @@
       <c r="AG73" s="34"/>
     </row>
     <row r="74" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="45"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="Q74" s="46"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="46"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="46"/>
-      <c r="V74" s="46"/>
-      <c r="W74" s="46"/>
-      <c r="X74" s="46"/>
-      <c r="Y74" s="46"/>
-      <c r="Z74" s="46"/>
-      <c r="AA74" s="46"/>
-      <c r="AB74" s="47"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
+      <c r="L74" s="63"/>
+      <c r="M74" s="63"/>
+      <c r="N74" s="63"/>
+      <c r="O74" s="63"/>
+      <c r="P74" s="63"/>
+      <c r="Q74" s="63"/>
+      <c r="R74" s="63"/>
+      <c r="S74" s="63"/>
+      <c r="T74" s="63"/>
+      <c r="U74" s="63"/>
+      <c r="V74" s="63"/>
+      <c r="W74" s="63"/>
+      <c r="X74" s="63"/>
+      <c r="Y74" s="63"/>
+      <c r="Z74" s="63"/>
+      <c r="AA74" s="63"/>
+      <c r="AB74" s="64"/>
       <c r="AC74" s="34"/>
       <c r="AD74" s="34"/>
       <c r="AE74" s="34"/>
@@ -5833,33 +5833,33 @@
       <c r="AG74" s="34"/>
     </row>
     <row r="75" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="45"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="46"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="46"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="46"/>
-      <c r="W75" s="46"/>
-      <c r="X75" s="46"/>
-      <c r="Y75" s="46"/>
-      <c r="Z75" s="46"/>
-      <c r="AA75" s="46"/>
-      <c r="AB75" s="47"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="63"/>
+      <c r="T75" s="63"/>
+      <c r="U75" s="63"/>
+      <c r="V75" s="63"/>
+      <c r="W75" s="63"/>
+      <c r="X75" s="63"/>
+      <c r="Y75" s="63"/>
+      <c r="Z75" s="63"/>
+      <c r="AA75" s="63"/>
+      <c r="AB75" s="64"/>
       <c r="AC75" s="34"/>
       <c r="AD75" s="34"/>
       <c r="AE75" s="34"/>
@@ -5867,33 +5867,33 @@
       <c r="AG75" s="34"/>
     </row>
     <row r="76" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="45"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="46"/>
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="46"/>
-      <c r="S76" s="46"/>
-      <c r="T76" s="46"/>
-      <c r="U76" s="46"/>
-      <c r="V76" s="46"/>
-      <c r="W76" s="46"/>
-      <c r="X76" s="46"/>
-      <c r="Y76" s="46"/>
-      <c r="Z76" s="46"/>
-      <c r="AA76" s="46"/>
-      <c r="AB76" s="47"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
+      <c r="O76" s="63"/>
+      <c r="P76" s="63"/>
+      <c r="Q76" s="63"/>
+      <c r="R76" s="63"/>
+      <c r="S76" s="63"/>
+      <c r="T76" s="63"/>
+      <c r="U76" s="63"/>
+      <c r="V76" s="63"/>
+      <c r="W76" s="63"/>
+      <c r="X76" s="63"/>
+      <c r="Y76" s="63"/>
+      <c r="Z76" s="63"/>
+      <c r="AA76" s="63"/>
+      <c r="AB76" s="64"/>
       <c r="AC76" s="34"/>
       <c r="AD76" s="34"/>
       <c r="AE76" s="34"/>
@@ -5901,33 +5901,33 @@
       <c r="AG76" s="34"/>
     </row>
     <row r="77" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="45"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="46"/>
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
-      <c r="Q77" s="46"/>
-      <c r="R77" s="46"/>
-      <c r="S77" s="46"/>
-      <c r="T77" s="46"/>
-      <c r="U77" s="46"/>
-      <c r="V77" s="46"/>
-      <c r="W77" s="46"/>
-      <c r="X77" s="46"/>
-      <c r="Y77" s="46"/>
-      <c r="Z77" s="46"/>
-      <c r="AA77" s="46"/>
-      <c r="AB77" s="47"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="63"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="63"/>
+      <c r="S77" s="63"/>
+      <c r="T77" s="63"/>
+      <c r="U77" s="63"/>
+      <c r="V77" s="63"/>
+      <c r="W77" s="63"/>
+      <c r="X77" s="63"/>
+      <c r="Y77" s="63"/>
+      <c r="Z77" s="63"/>
+      <c r="AA77" s="63"/>
+      <c r="AB77" s="64"/>
       <c r="AC77" s="34"/>
       <c r="AD77" s="34"/>
       <c r="AE77" s="34"/>
@@ -5935,33 +5935,33 @@
       <c r="AG77" s="34"/>
     </row>
     <row r="78" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="45"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="46"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="46"/>
-      <c r="S78" s="46"/>
-      <c r="T78" s="46"/>
-      <c r="U78" s="46"/>
-      <c r="V78" s="46"/>
-      <c r="W78" s="46"/>
-      <c r="X78" s="46"/>
-      <c r="Y78" s="46"/>
-      <c r="Z78" s="46"/>
-      <c r="AA78" s="46"/>
-      <c r="AB78" s="47"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="63"/>
+      <c r="Q78" s="63"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="63"/>
+      <c r="T78" s="63"/>
+      <c r="U78" s="63"/>
+      <c r="V78" s="63"/>
+      <c r="W78" s="63"/>
+      <c r="X78" s="63"/>
+      <c r="Y78" s="63"/>
+      <c r="Z78" s="63"/>
+      <c r="AA78" s="63"/>
+      <c r="AB78" s="64"/>
       <c r="AC78" s="34"/>
       <c r="AD78" s="34"/>
       <c r="AE78" s="34"/>
@@ -5969,33 +5969,33 @@
       <c r="AG78" s="34"/>
     </row>
     <row r="79" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="45"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="46"/>
-      <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
-      <c r="J79" s="46"/>
-      <c r="K79" s="46"/>
-      <c r="L79" s="46"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="46"/>
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
-      <c r="Q79" s="46"/>
-      <c r="R79" s="46"/>
-      <c r="S79" s="46"/>
-      <c r="T79" s="46"/>
-      <c r="U79" s="46"/>
-      <c r="V79" s="46"/>
-      <c r="W79" s="46"/>
-      <c r="X79" s="46"/>
-      <c r="Y79" s="46"/>
-      <c r="Z79" s="46"/>
-      <c r="AA79" s="46"/>
-      <c r="AB79" s="47"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="63"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
+      <c r="T79" s="63"/>
+      <c r="U79" s="63"/>
+      <c r="V79" s="63"/>
+      <c r="W79" s="63"/>
+      <c r="X79" s="63"/>
+      <c r="Y79" s="63"/>
+      <c r="Z79" s="63"/>
+      <c r="AA79" s="63"/>
+      <c r="AB79" s="64"/>
       <c r="AC79" s="34"/>
       <c r="AD79" s="34"/>
       <c r="AE79" s="34"/>
@@ -6003,33 +6003,33 @@
       <c r="AG79" s="34"/>
     </row>
     <row r="80" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="45"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="46"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="46"/>
-      <c r="R80" s="46"/>
-      <c r="S80" s="46"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="46"/>
-      <c r="V80" s="46"/>
-      <c r="W80" s="46"/>
-      <c r="X80" s="46"/>
-      <c r="Y80" s="46"/>
-      <c r="Z80" s="46"/>
-      <c r="AA80" s="46"/>
-      <c r="AB80" s="47"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="63"/>
+      <c r="L80" s="63"/>
+      <c r="M80" s="63"/>
+      <c r="N80" s="63"/>
+      <c r="O80" s="63"/>
+      <c r="P80" s="63"/>
+      <c r="Q80" s="63"/>
+      <c r="R80" s="63"/>
+      <c r="S80" s="63"/>
+      <c r="T80" s="63"/>
+      <c r="U80" s="63"/>
+      <c r="V80" s="63"/>
+      <c r="W80" s="63"/>
+      <c r="X80" s="63"/>
+      <c r="Y80" s="63"/>
+      <c r="Z80" s="63"/>
+      <c r="AA80" s="63"/>
+      <c r="AB80" s="64"/>
       <c r="AC80" s="34"/>
       <c r="AD80" s="34"/>
       <c r="AE80" s="34"/>
@@ -6037,33 +6037,33 @@
       <c r="AG80" s="34"/>
     </row>
     <row r="81" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="45"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="46"/>
-      <c r="H81" s="46"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="46"/>
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
-      <c r="Q81" s="46"/>
-      <c r="R81" s="46"/>
-      <c r="S81" s="46"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="46"/>
-      <c r="V81" s="46"/>
-      <c r="W81" s="46"/>
-      <c r="X81" s="46"/>
-      <c r="Y81" s="46"/>
-      <c r="Z81" s="46"/>
-      <c r="AA81" s="46"/>
-      <c r="AB81" s="47"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="63"/>
+      <c r="L81" s="63"/>
+      <c r="M81" s="63"/>
+      <c r="N81" s="63"/>
+      <c r="O81" s="63"/>
+      <c r="P81" s="63"/>
+      <c r="Q81" s="63"/>
+      <c r="R81" s="63"/>
+      <c r="S81" s="63"/>
+      <c r="T81" s="63"/>
+      <c r="U81" s="63"/>
+      <c r="V81" s="63"/>
+      <c r="W81" s="63"/>
+      <c r="X81" s="63"/>
+      <c r="Y81" s="63"/>
+      <c r="Z81" s="63"/>
+      <c r="AA81" s="63"/>
+      <c r="AB81" s="64"/>
       <c r="AC81" s="34"/>
       <c r="AD81" s="34"/>
       <c r="AE81" s="34"/>
@@ -6071,33 +6071,33 @@
       <c r="AG81" s="34"/>
     </row>
     <row r="82" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="45"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="46"/>
-      <c r="I82" s="46"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="46"/>
-      <c r="R82" s="46"/>
-      <c r="S82" s="46"/>
-      <c r="T82" s="46"/>
-      <c r="U82" s="46"/>
-      <c r="V82" s="46"/>
-      <c r="W82" s="46"/>
-      <c r="X82" s="46"/>
-      <c r="Y82" s="46"/>
-      <c r="Z82" s="46"/>
-      <c r="AA82" s="46"/>
-      <c r="AB82" s="47"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="63"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="63"/>
+      <c r="O82" s="63"/>
+      <c r="P82" s="63"/>
+      <c r="Q82" s="63"/>
+      <c r="R82" s="63"/>
+      <c r="S82" s="63"/>
+      <c r="T82" s="63"/>
+      <c r="U82" s="63"/>
+      <c r="V82" s="63"/>
+      <c r="W82" s="63"/>
+      <c r="X82" s="63"/>
+      <c r="Y82" s="63"/>
+      <c r="Z82" s="63"/>
+      <c r="AA82" s="63"/>
+      <c r="AB82" s="64"/>
       <c r="AC82" s="34"/>
       <c r="AD82" s="34"/>
       <c r="AE82" s="34"/>
@@ -6105,33 +6105,33 @@
       <c r="AG82" s="34"/>
     </row>
     <row r="83" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="45"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="46"/>
-      <c r="I83" s="46"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="46"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="46"/>
-      <c r="O83" s="46"/>
-      <c r="P83" s="46"/>
-      <c r="Q83" s="46"/>
-      <c r="R83" s="46"/>
-      <c r="S83" s="46"/>
-      <c r="T83" s="46"/>
-      <c r="U83" s="46"/>
-      <c r="V83" s="46"/>
-      <c r="W83" s="46"/>
-      <c r="X83" s="46"/>
-      <c r="Y83" s="46"/>
-      <c r="Z83" s="46"/>
-      <c r="AA83" s="46"/>
-      <c r="AB83" s="47"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
+      <c r="O83" s="63"/>
+      <c r="P83" s="63"/>
+      <c r="Q83" s="63"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="63"/>
+      <c r="T83" s="63"/>
+      <c r="U83" s="63"/>
+      <c r="V83" s="63"/>
+      <c r="W83" s="63"/>
+      <c r="X83" s="63"/>
+      <c r="Y83" s="63"/>
+      <c r="Z83" s="63"/>
+      <c r="AA83" s="63"/>
+      <c r="AB83" s="64"/>
       <c r="AC83" s="34"/>
       <c r="AD83" s="34"/>
       <c r="AE83" s="34"/>
@@ -6139,91 +6139,91 @@
       <c r="AG83" s="34"/>
     </row>
     <row r="84" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="45"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="46"/>
-      <c r="I84" s="46"/>
-      <c r="J84" s="46"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="46"/>
-      <c r="O84" s="46"/>
-      <c r="P84" s="46"/>
-      <c r="Q84" s="46"/>
-      <c r="R84" s="46"/>
-      <c r="S84" s="46"/>
-      <c r="T84" s="46"/>
-      <c r="U84" s="46"/>
-      <c r="V84" s="46"/>
-      <c r="W84" s="46"/>
-      <c r="X84" s="46"/>
-      <c r="Y84" s="46"/>
-      <c r="Z84" s="46"/>
-      <c r="AA84" s="46"/>
-      <c r="AB84" s="47"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="63"/>
+      <c r="L84" s="63"/>
+      <c r="M84" s="63"/>
+      <c r="N84" s="63"/>
+      <c r="O84" s="63"/>
+      <c r="P84" s="63"/>
+      <c r="Q84" s="63"/>
+      <c r="R84" s="63"/>
+      <c r="S84" s="63"/>
+      <c r="T84" s="63"/>
+      <c r="U84" s="63"/>
+      <c r="V84" s="63"/>
+      <c r="W84" s="63"/>
+      <c r="X84" s="63"/>
+      <c r="Y84" s="63"/>
+      <c r="Z84" s="63"/>
+      <c r="AA84" s="63"/>
+      <c r="AB84" s="64"/>
     </row>
     <row r="85" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="45"/>
-      <c r="C85" s="46"/>
-      <c r="D85" s="46"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="46"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="46"/>
-      <c r="N85" s="46"/>
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
-      <c r="Q85" s="46"/>
-      <c r="R85" s="46"/>
-      <c r="S85" s="46"/>
-      <c r="T85" s="46"/>
-      <c r="U85" s="46"/>
-      <c r="V85" s="46"/>
-      <c r="W85" s="46"/>
-      <c r="X85" s="46"/>
-      <c r="Y85" s="46"/>
-      <c r="Z85" s="46"/>
-      <c r="AA85" s="46"/>
-      <c r="AB85" s="47"/>
+      <c r="B85" s="62"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="63"/>
+      <c r="L85" s="63"/>
+      <c r="M85" s="63"/>
+      <c r="N85" s="63"/>
+      <c r="O85" s="63"/>
+      <c r="P85" s="63"/>
+      <c r="Q85" s="63"/>
+      <c r="R85" s="63"/>
+      <c r="S85" s="63"/>
+      <c r="T85" s="63"/>
+      <c r="U85" s="63"/>
+      <c r="V85" s="63"/>
+      <c r="W85" s="63"/>
+      <c r="X85" s="63"/>
+      <c r="Y85" s="63"/>
+      <c r="Z85" s="63"/>
+      <c r="AA85" s="63"/>
+      <c r="AB85" s="64"/>
     </row>
     <row r="86" spans="2:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="48"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="49"/>
-      <c r="J86" s="49"/>
-      <c r="K86" s="49"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="49"/>
-      <c r="O86" s="49"/>
-      <c r="P86" s="49"/>
-      <c r="Q86" s="49"/>
-      <c r="R86" s="49"/>
-      <c r="S86" s="49"/>
-      <c r="T86" s="49"/>
-      <c r="U86" s="49"/>
-      <c r="V86" s="49"/>
-      <c r="W86" s="49"/>
-      <c r="X86" s="49"/>
-      <c r="Y86" s="49"/>
-      <c r="Z86" s="49"/>
-      <c r="AA86" s="49"/>
-      <c r="AB86" s="50"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
+      <c r="M86" s="66"/>
+      <c r="N86" s="66"/>
+      <c r="O86" s="66"/>
+      <c r="P86" s="66"/>
+      <c r="Q86" s="66"/>
+      <c r="R86" s="66"/>
+      <c r="S86" s="66"/>
+      <c r="T86" s="66"/>
+      <c r="U86" s="66"/>
+      <c r="V86" s="66"/>
+      <c r="W86" s="66"/>
+      <c r="X86" s="66"/>
+      <c r="Y86" s="66"/>
+      <c r="Z86" s="66"/>
+      <c r="AA86" s="66"/>
+      <c r="AB86" s="67"/>
     </row>
     <row r="432" ht="13.5" x14ac:dyDescent="0.2"/>
     <row r="474" ht="13.5" x14ac:dyDescent="0.2"/>
@@ -6242,19 +6242,29 @@
     <mergeCell ref="B26:AG26"/>
     <mergeCell ref="B29:AG29"/>
     <mergeCell ref="B33:AG33"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="Z12:Z13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="B16:AG16"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W14:Y15"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="Z14:AB15"/>
+    <mergeCell ref="B55:AB86"/>
+    <mergeCell ref="AC14:AG15"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="B14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="W12:W13"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="E12:E13"/>
@@ -6271,34 +6281,24 @@
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="P12:P13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="B14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="B55:AB86"/>
-    <mergeCell ref="AC14:AG15"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="Z12:Z13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="B16:AG16"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W14:Y15"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="Z14:AB15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="58" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="32" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="400" max="1048575" man="1"/>
@@ -6307,9 +6307,6 @@
     <brk id="504" max="1048575" man="1"/>
     <brk id="514" max="1048575" man="1"/>
   </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="28" max="16383" man="1"/>
-  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7621,15 +7618,15 @@
       </c>
       <c r="E105" s="5">
         <f>'Mortgage Performance'!E30</f>
-        <v>110.302946280212</v>
+        <v>110.302219218267</v>
       </c>
       <c r="F105" s="5">
         <f>'Mortgage Performance'!F30</f>
-        <v>109.76467757047654</v>
+        <v>109.76393367064856</v>
       </c>
       <c r="G105" s="5">
         <f>'Mortgage Performance'!G30</f>
-        <v>65210.097297844404</v>
+        <v>65209.655354395596</v>
       </c>
       <c r="H105" s="5">
         <f>'Mortgage Performance'!H30</f>
@@ -7669,71 +7666,71 @@
       </c>
       <c r="Q105" s="5">
         <f>'Mortgage Performance'!Q30</f>
-        <v>1.7577549905965009</v>
+        <v>1.758168464320343</v>
       </c>
       <c r="R105" s="5">
         <f>'Mortgage Performance'!R30</f>
-        <v>0.76438235154394951</v>
+        <v>0.76456568213768838</v>
       </c>
       <c r="S105" s="5">
         <f>'Mortgage Performance'!S30</f>
-        <v>-4.8392611844560597E-2</v>
+        <v>-4.81647947828545E-2</v>
       </c>
       <c r="T105" s="5">
         <f>'Mortgage Performance'!T30</f>
-        <v>0.16026707905124099</v>
+        <v>0.16026812049242301</v>
       </c>
       <c r="U105" s="5">
         <f>'Mortgage Performance'!U30</f>
-        <v>0.88149817184587109</v>
+        <v>0.88149945647308603</v>
       </c>
       <c r="V105" s="5">
         <f>'Mortgage Performance'!V30</f>
-        <v>1.1292979202958</v>
+        <v>1.1296854360562301</v>
       </c>
       <c r="W105" s="5">
         <f>'Mortgage Performance'!W30</f>
-        <v>2.7390820064283301</v>
+        <v>2.7391893103534199</v>
       </c>
       <c r="X105" s="5">
         <f>'Mortgage Performance'!X30</f>
-        <v>1.5134107965641239</v>
+        <v>1.513247096505316</v>
       </c>
       <c r="Y105" s="5">
         <f>'Mortgage Performance'!Y30</f>
-        <v>-1.0239497069616892</v>
+        <v>-1.0191508042434232</v>
       </c>
       <c r="Z105" s="5">
         <f>'Mortgage Performance'!Z30</f>
-        <v>4.6401742512260702E-2</v>
+        <v>4.6397737586455899E-2</v>
       </c>
       <c r="AA105" s="5">
         <f>'Mortgage Performance'!AA30</f>
-        <v>0.71400216273615902</v>
+        <v>0.71402135873151096</v>
       </c>
       <c r="AB105" s="5">
         <f>'Mortgage Performance'!AB30</f>
-        <v>2.5472407244451563</v>
+        <v>2.5473180003481417</v>
       </c>
       <c r="AC105" s="5">
         <f>'Mortgage Performance'!AC30</f>
-        <v>25.088268626646197</v>
+        <v>25.087931537214704</v>
       </c>
       <c r="AD105" s="5">
         <f>'Mortgage Performance'!AD30</f>
-        <v>25.435783248364203</v>
+        <v>25.4359693284899</v>
       </c>
       <c r="AE105" s="5">
         <f>'Mortgage Performance'!AE30</f>
-        <v>0.11242142032050001</v>
+        <v>0.112421371345495</v>
       </c>
       <c r="AF105" s="5">
         <f>'Mortgage Performance'!AF30</f>
-        <v>0.25418789247949297</v>
+        <v>0.25418753272894401</v>
       </c>
       <c r="AG105" s="5">
         <f>'Mortgage Performance'!AG30</f>
-        <v>274.71684957748499</v>
+        <v>274.72881012040301</v>
       </c>
       <c r="AH105" s="5">
         <f>'Mortgage Performance'!AH30</f>
